--- a/company/amazon/japan/AJGK_Questionnaire2016ver3_Last+Name_First+Name.xlsx
+++ b/company/amazon/japan/AJGK_Questionnaire2016ver3_Last+Name_First+Name.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willwywang-NB/github/alg/company/amazon/japan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>名</t>
   </si>
@@ -358,13 +366,43 @@
     <t>質問票/Questionnaire
 *黄色:必須項目/Yellow is mandatory</t>
   </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>khil.wang@gmail.com</t>
+  </si>
+  <si>
+    <t>86-13552133119</t>
+  </si>
+  <si>
+    <t>Chinese Academy of Science Software Institute</t>
+  </si>
+  <si>
+    <t>MSc. Computer Science</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ない/No</t>
+  </si>
+  <si>
+    <t>2.外国人登録証明書/Alien registration certificate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -468,26 +506,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -496,19 +534,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,20 +555,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,55 +576,55 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -596,10 +634,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -607,31 +645,31 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -639,16 +677,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,32 +694,32 @@
       <left/>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -689,92 +727,92 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,72 +820,72 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -860,7 +898,7 @@
   </cellStyleXfs>
   <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -894,119 +932,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1014,149 +1099,102 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1172,7 +1210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1217,9 +1255,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1252,9 +1290,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1460,28 +1498,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="8" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="8" customWidth="1"/>
-    <col min="6" max="7" width="24.28515625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="25.5" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.33203125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
@@ -1489,189 +1527,195 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="45" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="47" t="s">
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="47" t="s">
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="59" t="s">
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="47" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37"/>
+      <c r="B10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="47" t="s">
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="47" t="s">
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1681,197 +1725,213 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="56" t="s">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="22" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="73" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="76"/>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66" t="s">
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25">
+        <v>2012</v>
+      </c>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="68" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="69"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="81"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="64"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="29" t="s">
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="65"/>
-    </row>
-    <row r="29" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="83" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
+    </row>
+    <row r="31" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+    </row>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="84"/>
-    </row>
-    <row r="33" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
-      <c r="B33" s="14" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="9" t="s">
         <v>46</v>
       </c>
@@ -1879,137 +1939,221 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-      <c r="B34" s="28" t="s">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="28" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
-      <c r="B36" s="13" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="36" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="13" t="s">
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="36" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="13" t="s">
+      <c r="F37" s="73"/>
+      <c r="G37" s="74"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="13" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="28" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="72"/>
+    </row>
+    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="85" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
+    </row>
+    <row r="42" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
+    </row>
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" ht="237" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="77" t="s">
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="237" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-    </row>
-    <row r="47" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="G6nfFmSffeFtmU+u2zsoxIMP68g2L+qZXNRv1kPLdX5aHgXmDCUmrTI/IhVWkULaNK9DNAraNKejLsIqOcAnzg==" saltValue="7DWP+aIfJocBu2mjczM30g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="100">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A30:A40"/>
     <mergeCell ref="A1:E1"/>
@@ -2026,90 +2170,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
@@ -2133,6 +2193,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000038913FC2A8704BB8859DB96E6E44E2" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b30626e39ea387460522da1b08f44f14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -2246,22 +2315,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB3A2B0-A282-4A33-86B1-534E753D5680}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{222AC300-2788-4693-9E96-6F263CE1AA52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2277,7 +2345,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A817DCF-9647-472B-843D-E3146418C389}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2290,12 +2358,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB3A2B0-A282-4A33-86B1-534E753D5680}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>